--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H2">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I2">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J2">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>84.42735664780668</v>
+        <v>132.6729469394587</v>
       </c>
       <c r="R2">
-        <v>759.84620983026</v>
+        <v>1194.056522455128</v>
       </c>
       <c r="S2">
-        <v>0.02993143362059715</v>
+        <v>0.0318258376823239</v>
       </c>
       <c r="T2">
-        <v>0.02993143362059715</v>
+        <v>0.0318258376823239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H3">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I3">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J3">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>1.961169128411111</v>
+        <v>1.555133926082222</v>
       </c>
       <c r="R3">
-        <v>17.6505221557</v>
+        <v>13.99620533474</v>
       </c>
       <c r="S3">
-        <v>0.0006952794202793098</v>
+        <v>0.0003730484702985662</v>
       </c>
       <c r="T3">
-        <v>0.0006952794202793095</v>
+        <v>0.0003730484702985662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H4">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I4">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J4">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>33.69265327152667</v>
+        <v>0.2520142840942223</v>
       </c>
       <c r="R4">
-        <v>303.23387944374</v>
+        <v>2.268128556848001</v>
       </c>
       <c r="S4">
-        <v>0.01194481806537402</v>
+        <v>6.045366357068804E-05</v>
       </c>
       <c r="T4">
-        <v>0.01194481806537401</v>
+        <v>6.045366357068804E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H5">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I5">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J5">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>1.299422552983334</v>
+        <v>56.0328230786509</v>
       </c>
       <c r="R5">
-        <v>11.69480297685</v>
+        <v>504.2954077078581</v>
       </c>
       <c r="S5">
-        <v>0.0004606750872465928</v>
+        <v>0.01344125967894018</v>
       </c>
       <c r="T5">
-        <v>0.0004606750872465926</v>
+        <v>0.01344125967894018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H6">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I6">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J6">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>0.8927686389844446</v>
+        <v>1.350126557470444</v>
       </c>
       <c r="R6">
-        <v>8.03491775086</v>
+        <v>12.151139017234</v>
       </c>
       <c r="S6">
-        <v>0.0003165069512691888</v>
+        <v>0.000323870914605196</v>
       </c>
       <c r="T6">
-        <v>0.0003165069512691887</v>
+        <v>0.000323870914605196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.95649733333334</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H7">
-        <v>173.869492</v>
+        <v>26.489402</v>
       </c>
       <c r="I7">
-        <v>0.225621347232822</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J7">
-        <v>0.225621347232822</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>439.4274378242746</v>
+        <v>0.7549832762026668</v>
       </c>
       <c r="R7">
-        <v>3954.846940418472</v>
+        <v>6.794849485824001</v>
       </c>
       <c r="S7">
-        <v>0.1557871015809904</v>
+        <v>0.0001811068175960517</v>
       </c>
       <c r="T7">
-        <v>0.1557871015809904</v>
+        <v>0.0001811068175960517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>173.869492</v>
       </c>
       <c r="I8">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J8">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>10.20749149867111</v>
+        <v>870.8304508537653</v>
       </c>
       <c r="R8">
-        <v>91.86742348804</v>
+        <v>7837.474057683888</v>
       </c>
       <c r="S8">
-        <v>0.003618789766210468</v>
+        <v>0.2088964571680445</v>
       </c>
       <c r="T8">
-        <v>0.003618789766210467</v>
+        <v>0.2088964571680445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>173.869492</v>
       </c>
       <c r="I9">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J9">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>175.3634945882587</v>
+        <v>10.20749149867111</v>
       </c>
       <c r="R9">
-        <v>1578.271451294328</v>
+        <v>91.86742348804</v>
       </c>
       <c r="S9">
-        <v>0.06217037943803461</v>
+        <v>0.002448592385067386</v>
       </c>
       <c r="T9">
-        <v>0.06217037943803458</v>
+        <v>0.002448592385067386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>173.869492</v>
       </c>
       <c r="I10">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J10">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>6.763233456313334</v>
+        <v>1.654155709223111</v>
       </c>
       <c r="R10">
-        <v>60.86910110682001</v>
+        <v>14.887401383008</v>
       </c>
       <c r="S10">
-        <v>0.002397721322754494</v>
+        <v>0.0003968020031020117</v>
       </c>
       <c r="T10">
-        <v>0.002397721322754493</v>
+        <v>0.0003968020031020117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>173.869492</v>
       </c>
       <c r="I11">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J11">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>4.646681492532445</v>
+        <v>367.7847647904965</v>
       </c>
       <c r="R11">
-        <v>41.820133432792</v>
+        <v>3310.062883114469</v>
       </c>
       <c r="S11">
-        <v>0.001647355124832105</v>
+        <v>0.08822490565160408</v>
       </c>
       <c r="T11">
-        <v>0.001647355124832104</v>
+        <v>0.08822490565160408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.64567566666667</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H12">
-        <v>166.937027</v>
+        <v>173.869492</v>
       </c>
       <c r="I12">
-        <v>0.216625449936795</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J12">
-        <v>0.216625449936795</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>421.9067371095313</v>
+        <v>8.861876862418223</v>
       </c>
       <c r="R12">
-        <v>3797.160633985782</v>
+        <v>79.756891761764</v>
       </c>
       <c r="S12">
-        <v>0.1495756114757472</v>
+        <v>0.002125803798665625</v>
       </c>
       <c r="T12">
-        <v>0.1495756114757472</v>
+        <v>0.002125803798665625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.64567566666667</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H13">
-        <v>166.937027</v>
+        <v>173.869492</v>
       </c>
       <c r="I13">
-        <v>0.216625449936795</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J13">
-        <v>0.216625449936795</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>9.800501883998889</v>
+        <v>4.955512347989335</v>
       </c>
       <c r="R13">
-        <v>88.20451695599</v>
+        <v>44.59961113190401</v>
       </c>
       <c r="S13">
-        <v>0.003474502616647667</v>
+        <v>0.001188737683589919</v>
       </c>
       <c r="T13">
-        <v>0.003474502616647666</v>
+        <v>0.001188737683589919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H14">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I14">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J14">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>168.3714612273353</v>
+        <v>247.7223666881293</v>
       </c>
       <c r="R14">
-        <v>1515.343151046018</v>
+        <v>2229.501300193164</v>
       </c>
       <c r="S14">
-        <v>0.05969154330333827</v>
+        <v>0.05942411029804848</v>
       </c>
       <c r="T14">
-        <v>0.05969154330333825</v>
+        <v>0.05942411029804847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H15">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I15">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J15">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>6.493572121921668</v>
+        <v>2.903692618374444</v>
       </c>
       <c r="R15">
-        <v>58.44214909729501</v>
+        <v>26.13323356537</v>
       </c>
       <c r="S15">
-        <v>0.002302120197113952</v>
+        <v>0.0006965432824365981</v>
       </c>
       <c r="T15">
-        <v>0.002302120197113951</v>
+        <v>0.000696543282436598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H16">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I16">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J16">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>4.461410595133556</v>
+        <v>0.4705524097804445</v>
       </c>
       <c r="R16">
-        <v>40.152695356202</v>
+        <v>4.234971688024</v>
       </c>
       <c r="S16">
-        <v>0.001581672343947985</v>
+        <v>0.0001128770028868999</v>
       </c>
       <c r="T16">
-        <v>0.001581672343947985</v>
+        <v>0.0001128770028868998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.03536666666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H17">
-        <v>123.1061</v>
+        <v>49.460101</v>
       </c>
       <c r="I17">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J17">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>311.1310528447333</v>
+        <v>104.6225614600588</v>
       </c>
       <c r="R17">
-        <v>2800.1794756026</v>
+        <v>941.6030531405291</v>
       </c>
       <c r="S17">
-        <v>0.1103030916196589</v>
+        <v>0.02509705810979081</v>
       </c>
       <c r="T17">
-        <v>0.1103030916196589</v>
+        <v>0.02509705810979081</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.03536666666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H18">
-        <v>123.1061</v>
+        <v>49.460101</v>
       </c>
       <c r="I18">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J18">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>7.227285561888888</v>
+        <v>2.520909905601889</v>
       </c>
       <c r="R18">
-        <v>65.04557005700001</v>
+        <v>22.688189150417</v>
       </c>
       <c r="S18">
-        <v>0.002562238433629762</v>
+        <v>0.0006047206406296137</v>
       </c>
       <c r="T18">
-        <v>0.002562238433629762</v>
+        <v>0.0006047206406296136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.03536666666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H19">
-        <v>123.1061</v>
+        <v>49.460101</v>
       </c>
       <c r="I19">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J19">
-        <v>0.1597483481149097</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>124.1639096819333</v>
+        <v>1.409678825301334</v>
       </c>
       <c r="R19">
-        <v>1117.4751871374</v>
+        <v>12.687109427712</v>
       </c>
       <c r="S19">
-        <v>0.04401895272194521</v>
+        <v>0.0003381564253541585</v>
       </c>
       <c r="T19">
-        <v>0.04401895272194519</v>
+        <v>0.0003381564253541583</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H20">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I20">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J20">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>4.788622113166667</v>
+        <v>231.7822813342146</v>
       </c>
       <c r="R20">
-        <v>43.09759901850001</v>
+        <v>2086.040532007932</v>
       </c>
       <c r="S20">
-        <v>0.001697676329158119</v>
+        <v>0.05560037244629509</v>
       </c>
       <c r="T20">
-        <v>0.001697676329158119</v>
+        <v>0.05560037244629509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H21">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I21">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J21">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>3.290024200955556</v>
+        <v>2.716849949312222</v>
       </c>
       <c r="R21">
-        <v>29.6102178086</v>
+        <v>24.45164954381</v>
       </c>
       <c r="S21">
-        <v>0.001166389010517691</v>
+        <v>0.0006517231092597715</v>
       </c>
       <c r="T21">
-        <v>0.00116638901051769</v>
+        <v>0.0006517231092597715</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.42032266666666</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H22">
-        <v>91.26096799999999</v>
+        <v>46.277513</v>
       </c>
       <c r="I22">
-        <v>0.1184245856652727</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J22">
-        <v>0.1184245856652728</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>230.6475557057653</v>
+        <v>0.4402739747902222</v>
       </c>
       <c r="R22">
-        <v>2075.828001351888</v>
+        <v>3.962465773112</v>
       </c>
       <c r="S22">
-        <v>0.08176984661688382</v>
+        <v>0.0001056137545796671</v>
       </c>
       <c r="T22">
-        <v>0.08176984661688382</v>
+        <v>0.0001056137545796671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.42032266666666</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H23">
-        <v>91.26096799999999</v>
+        <v>46.277513</v>
       </c>
       <c r="I23">
-        <v>0.1184245856652727</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J23">
-        <v>0.1184245856652728</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>5.357728629128888</v>
+        <v>97.89045817074189</v>
       </c>
       <c r="R23">
-        <v>48.21955766215999</v>
+        <v>881.0141235366771</v>
       </c>
       <c r="S23">
-        <v>0.001899437637126477</v>
+        <v>0.02348214842783276</v>
       </c>
       <c r="T23">
-        <v>0.001899437637126477</v>
+        <v>0.02348214842783276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.42032266666666</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H24">
-        <v>91.26096799999999</v>
+        <v>46.277513</v>
       </c>
       <c r="I24">
-        <v>0.1184245856652727</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J24">
-        <v>0.1184245856652728</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>92.04514307770134</v>
+        <v>2.358697992313444</v>
       </c>
       <c r="R24">
-        <v>828.406287699312</v>
+        <v>21.228281930821</v>
       </c>
       <c r="S24">
-        <v>0.03263211356505449</v>
+        <v>0.0005658089397776457</v>
       </c>
       <c r="T24">
-        <v>0.03263211356505448</v>
+        <v>0.0005658089397776457</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.42032266666666</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H25">
-        <v>91.26096799999999</v>
+        <v>46.277513</v>
       </c>
       <c r="I25">
-        <v>0.1184245856652727</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J25">
-        <v>0.1184245856652728</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>3.549899553586667</v>
+        <v>1.318970823850667</v>
       </c>
       <c r="R25">
-        <v>31.94909598228</v>
+        <v>11.870737414656</v>
       </c>
       <c r="S25">
-        <v>0.001258520781258253</v>
+        <v>0.0003163972182418429</v>
       </c>
       <c r="T25">
-        <v>0.001258520781258252</v>
+        <v>0.0003163972182418429</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H26">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I26">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J26">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>2.438959509907555</v>
+        <v>370.6329887628146</v>
       </c>
       <c r="R26">
-        <v>21.950635589168</v>
+        <v>3335.696898865332</v>
       </c>
       <c r="S26">
-        <v>0.0008646670649497192</v>
+        <v>0.08890814301021394</v>
       </c>
       <c r="T26">
-        <v>0.000864667064949719</v>
+        <v>0.08890814301021394</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>60.68199533333333</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H27">
-        <v>182.045986</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I27">
-        <v>0.2362315559054342</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J27">
-        <v>0.2362315559054343</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>460.0922236212306</v>
+        <v>4.344396866478889</v>
       </c>
       <c r="R27">
-        <v>4140.830012591076</v>
+        <v>39.09957179831</v>
       </c>
       <c r="S27">
-        <v>0.1631132419331711</v>
+        <v>0.001042142144948709</v>
       </c>
       <c r="T27">
-        <v>0.163113241933171</v>
+        <v>0.001042142144948709</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>60.68199533333333</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H28">
-        <v>182.045986</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I28">
-        <v>0.2362315559054342</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J28">
-        <v>0.2362315559054343</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>10.68751529142444</v>
+        <v>0.704023009056889</v>
       </c>
       <c r="R28">
-        <v>96.18763762282001</v>
+        <v>6.336207081512001</v>
       </c>
       <c r="S28">
-        <v>0.003788969206377471</v>
+        <v>0.000168882372237425</v>
       </c>
       <c r="T28">
-        <v>0.003788969206377471</v>
+        <v>0.000168882372237425</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>60.68199533333333</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H29">
-        <v>182.045986</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I29">
-        <v>0.2362315559054342</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J29">
-        <v>0.2362315559054343</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>183.6102464757027</v>
+        <v>156.5323840732586</v>
       </c>
       <c r="R29">
-        <v>1652.492218281324</v>
+        <v>1408.791456659327</v>
       </c>
       <c r="S29">
-        <v>0.06509404205765514</v>
+        <v>0.03754928463159859</v>
       </c>
       <c r="T29">
-        <v>0.06509404205765512</v>
+        <v>0.03754928463159859</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>60.68199533333333</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H30">
-        <v>182.045986</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I30">
-        <v>0.2362315559054342</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J30">
-        <v>0.2362315559054343</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>7.081285445423334</v>
+        <v>3.771691612696778</v>
       </c>
       <c r="R30">
-        <v>63.73156900881001</v>
+        <v>33.945224514271</v>
       </c>
       <c r="S30">
-        <v>0.002510478044958376</v>
+        <v>0.000904760524451496</v>
       </c>
       <c r="T30">
-        <v>0.002510478044958376</v>
+        <v>0.000904760524451496</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>60.68199533333333</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H31">
-        <v>182.045986</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I31">
-        <v>0.2362315559054342</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J31">
-        <v>0.2362315559054343</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.08017533333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N31">
-        <v>0.240526</v>
+        <v>0.256512</v>
       </c>
       <c r="O31">
-        <v>0.007301415158788918</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P31">
-        <v>0.007301415158788916</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q31">
-        <v>4.865199203181778</v>
+        <v>2.109109012650667</v>
       </c>
       <c r="R31">
-        <v>43.786792828636</v>
+        <v>18.981981113856</v>
       </c>
       <c r="S31">
-        <v>0.001724824663272229</v>
+        <v>0.0005059370628254505</v>
       </c>
       <c r="T31">
-        <v>0.001724824663272229</v>
+        <v>0.0005059370628254504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H32">
+        <v>203.197601</v>
+      </c>
+      <c r="I32">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J32">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>1017.721145071463</v>
+      </c>
+      <c r="R32">
+        <v>9159.490305643165</v>
+      </c>
+      <c r="S32">
+        <v>0.2441328749838753</v>
+      </c>
+      <c r="T32">
+        <v>0.2441328749838753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H33">
+        <v>203.197601</v>
+      </c>
+      <c r="I33">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J33">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>11.92927960448556</v>
+      </c>
+      <c r="R33">
+        <v>107.36351644037</v>
+      </c>
+      <c r="S33">
+        <v>0.002861618175502354</v>
+      </c>
+      <c r="T33">
+        <v>0.002861618175502354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H34">
+        <v>203.197601</v>
+      </c>
+      <c r="I34">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J34">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>1.933176820891556</v>
+      </c>
+      <c r="R34">
+        <v>17.398591388024</v>
+      </c>
+      <c r="S34">
+        <v>0.0004637341155993217</v>
+      </c>
+      <c r="T34">
+        <v>0.0004637341155993217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H35">
+        <v>203.197601</v>
+      </c>
+      <c r="I35">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J35">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>429.8222823920033</v>
+      </c>
+      <c r="R35">
+        <v>3868.40054152803</v>
+      </c>
+      <c r="S35">
+        <v>0.1031065828205059</v>
+      </c>
+      <c r="T35">
+        <v>0.1031065828205059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H36">
+        <v>203.197601</v>
+      </c>
+      <c r="I36">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J36">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>10.35668821532411</v>
+      </c>
+      <c r="R36">
+        <v>93.21019393791701</v>
+      </c>
+      <c r="S36">
+        <v>0.002484381975910656</v>
+      </c>
+      <c r="T36">
+        <v>0.002484381975910656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>67.73253366666667</v>
+      </c>
+      <c r="H37">
+        <v>203.197601</v>
+      </c>
+      <c r="I37">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="J37">
+        <v>0.354438444681183</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>5.791402558634667</v>
+      </c>
+      <c r="R37">
+        <v>52.12262302771201</v>
+      </c>
+      <c r="S37">
+        <v>0.001389252609789466</v>
+      </c>
+      <c r="T37">
+        <v>0.001389252609789465</v>
       </c>
     </row>
   </sheetData>
